--- a/data_chapter.xlsx
+++ b/data_chapter.xlsx
@@ -21,10 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="88">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>chapter_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,7 +303,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#_[{}]</t>
+    <t>#_{{}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +669,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -690,40 +690,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -849,10 +849,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -1005,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -1137,10 +1137,10 @@
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1173,10 +1173,10 @@
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -1245,10 +1245,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -1281,10 +1281,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -1317,10 +1317,10 @@
         <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -1389,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
@@ -1401,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1461,10 +1461,10 @@
         <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>3</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -1605,10 +1605,10 @@
         <v>3</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H26" s="2">
         <v>1</v>
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -1641,10 +1641,10 @@
         <v>3</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -1677,10 +1677,10 @@
         <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H28" s="2">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -1713,10 +1713,10 @@
         <v>3</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>3</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
@@ -1761,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>3</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -1857,10 +1857,10 @@
         <v>4</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>
@@ -1869,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -1893,10 +1893,10 @@
         <v>4</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H34" s="2">
         <v>1</v>
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -1929,10 +1929,10 @@
         <v>4</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H35" s="2">
         <v>1</v>
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>4</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         <v>4</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
@@ -2037,10 +2037,10 @@
         <v>4</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
@@ -2049,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
@@ -2073,10 +2073,10 @@
         <v>4</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K39" s="1">
         <v>0</v>
@@ -2109,10 +2109,10 @@
         <v>4</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K40" s="1">
         <v>0</v>
@@ -2145,10 +2145,10 @@
         <v>4</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H41" s="2">
         <v>1</v>
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
@@ -2181,10 +2181,10 @@
         <v>4</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
@@ -2193,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
@@ -2217,10 +2217,10 @@
         <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K43" s="1">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H44" s="2">
         <v>1</v>
@@ -2265,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H45" s="2">
         <v>1</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
@@ -2325,10 +2325,10 @@
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K47" s="1">
         <v>0</v>
@@ -2397,10 +2397,10 @@
         <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H48" s="2">
         <v>1</v>
@@ -2409,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K48" s="1">
         <v>0</v>
@@ -2433,10 +2433,10 @@
         <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K49" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H50" s="2">
         <v>1</v>
@@ -2481,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K50" s="1">
         <v>0</v>
@@ -2505,10 +2505,10 @@
         <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H51" s="2">
         <v>1</v>
@@ -2517,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K51" s="1">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>5</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K52" s="1">
         <v>0</v>
@@ -2576,10 +2576,10 @@
         <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K53" s="1">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K54" s="1">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K55" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H56" s="2">
         <v>1</v>
@@ -2693,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K56" s="1">
         <v>0</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>
@@ -2728,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K57" s="1">
         <v>0</v>
@@ -2751,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H58" s="2">
         <v>1</v>
@@ -2763,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K58" s="1">
         <v>0</v>
@@ -2786,10 +2786,10 @@
         <v>0</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H59" s="2">
         <v>1</v>
@@ -2798,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K59" s="1">
         <v>0</v>
@@ -2821,10 +2821,10 @@
         <v>0</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H60" s="2">
         <v>1</v>
@@ -2833,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K60" s="1">
         <v>0</v>
@@ -2856,10 +2856,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H61" s="2">
         <v>1</v>
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K61" s="1">
         <v>0</v>
@@ -2891,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H62" s="2">
         <v>1</v>
@@ -2903,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K62" s="1">
         <v>0</v>
@@ -2926,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H63" s="2">
         <v>1</v>
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K63" s="1">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H64" s="2">
         <v>1</v>
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K64" s="1">
         <v>0</v>
@@ -2996,19 +2996,19 @@
         <v>0</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H65" s="2">
-        <v>1</v>
-      </c>
-      <c r="I65" s="2">
-        <v>1</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="K65" s="1">
         <v>0</v>
@@ -3116,7 +3116,7 @@
   <sheetData>
     <row r="1" spans="3:18" x14ac:dyDescent="0.15">
       <c r="R1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="3:18" x14ac:dyDescent="0.15">
@@ -6054,3002 +6054,3002 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="145" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="152" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="157" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="197" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="205" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="207" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="208" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="209" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="211" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="212" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="213" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="214" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="215" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="218" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="219" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="220" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="221" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="222" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="223" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="224" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="225" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="226" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="227" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="229" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="230" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="231" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="232" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="233" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="234" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="235" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="236" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="237" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="238" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="239" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="241" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="242" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="243" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="244" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="245" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="246" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="247" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="248" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="249" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="250" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="251" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="253" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="254" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="255" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="256" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="257" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="258" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="259" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="260" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="262" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="263" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="265" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="266" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="267" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="268" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="269" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="270" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="271" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="272" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="273" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="274" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="275" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="277" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="278" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="279" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="280" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="281" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="282" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="283" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="284" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="285" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="286" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="287" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="289" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="290" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="291" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="292" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="293" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="294" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="295" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="296" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="297" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="298" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="299" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="301" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="302" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="303" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="304" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="305" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="306" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="307" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="308" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="309" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="310" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="311" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="313" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="314" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="315" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="316" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="317" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="318" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="319" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="320" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="321" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="322" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="323" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="325" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="326" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="327" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="328" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="329" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="330" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="331" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="332" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="333" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="334" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="335" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="337" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="338" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="339" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="340" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="341" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="342" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="343" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="344" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="345" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="346" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="347" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="349" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="350" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="351" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="352" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="353" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="354" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="355" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="356" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="357" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="358" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="359" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="361" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="362" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="363" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="364" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="365" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="366" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="367" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="368" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="369" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="370" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="371" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="373" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="374" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="375" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="376" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="377" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="378" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="379" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="380" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="381" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="382" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="383" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="385" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="386" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="387" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="388" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="389" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="390" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="391" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="392" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="393" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="394" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="395" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="397" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="398" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="399" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="400" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="401" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="402" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="403" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="404" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="405" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="406" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="407" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="409" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="410" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="411" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="412" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="413" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="414" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="415" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="416" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="417" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="418" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="419" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="421" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="422" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="423" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="424" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="425" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="426" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="427" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="428" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="429" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="430" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="431" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="433" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="434" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="435" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="436" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="437" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="438" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="439" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="440" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="441" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="442" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="443" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="445" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="446" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="447" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="448" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="449" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="450" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="451" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="452" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="453" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="454" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="455" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="457" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="458" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="459" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="460" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="461" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="462" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="463" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="464" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="465" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="466" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="467" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="469" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="470" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="471" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="472" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="473" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="474" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="475" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="476" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="477" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="478" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="479" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="481" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="482" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="483" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="484" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="485" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="486" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="487" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="488" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="489" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="490" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="491" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="493" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="494" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="495" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="496" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="497" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="498" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="499" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="500" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="501" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="502" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="503" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="505" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="506" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="507" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="508" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="509" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="510" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="511" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="512" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="513" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="514" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="515" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="517" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="518" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="519" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="520" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="521" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A521" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="522" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A522" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="523" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="524" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="525" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="526" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="527" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A528" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="529" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="530" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A530" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="531" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A531" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="532" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A532" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="533" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A533" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="534" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A534" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="535" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A535" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="536" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A536" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="537" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A537" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="538" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="539" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A539" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="541" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="542" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="543" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A543" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="544" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A544" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="545" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A545" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="546" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A546" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="547" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A547" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="548" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="549" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A549" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="550" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A550" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="551" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="553" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A553" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="554" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="555" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A555" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="556" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A556" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="557" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A557" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="558" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="559" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A559" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="560" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="561" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A561" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="562" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A562" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="563" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A564" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="565" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A565" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="566" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A566" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="567" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A567" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="568" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A568" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="569" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A569" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="570" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A570" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="571" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A571" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="572" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A572" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="573" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A573" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="574" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="575" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="577" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A577" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="578" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A578" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="579" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A579" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="580" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="581" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A581" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="582" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A582" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="583" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A583" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="584" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A584" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="585" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A585" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="586" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A586" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="587" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A587" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A588" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="589" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A589" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="590" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A590" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="591" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A591" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="592" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A592" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="593" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A593" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="594" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A594" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="595" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A595" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="596" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A596" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="597" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="598" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="599" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A600" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -9122,10 +9122,10 @@
         <v>6</v>
       </c>
       <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" t="s">
         <v>68</v>
-      </c>
-      <c r="P1" t="s">
-        <v>69</v>
       </c>
       <c r="Q1" t="str">
         <f ca="1">O1&amp;"{"&amp;I1&amp;","&amp;C1&amp;"}"&amp;","&amp;"{"&amp;J1&amp;","&amp;D1&amp;"}"&amp;","&amp;"{"&amp;K1&amp;","&amp;E1&amp;"}"&amp;","&amp;"{"&amp;L1&amp;","&amp;F1&amp;"}"&amp;","&amp;"{"&amp;M1&amp;","&amp;G1&amp;"}"&amp;","&amp;"{"&amp;N1&amp;","&amp;H1&amp;"}"&amp;P1</f>
@@ -9179,10 +9179,10 @@
         <v>6</v>
       </c>
       <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
         <v>68</v>
-      </c>
-      <c r="P2" t="s">
-        <v>69</v>
       </c>
       <c r="Q2" t="str">
         <f t="shared" ref="Q2:Q10" ca="1" si="7">O2&amp;"{"&amp;I2&amp;","&amp;C2&amp;"}"&amp;","&amp;"{"&amp;J2&amp;","&amp;D2&amp;"}"&amp;","&amp;"{"&amp;K2&amp;","&amp;E2&amp;"}"&amp;","&amp;"{"&amp;L2&amp;","&amp;F2&amp;"}"&amp;","&amp;"{"&amp;M2&amp;","&amp;G2&amp;"}"&amp;","&amp;"{"&amp;N2&amp;","&amp;H2&amp;"}"&amp;P2</f>
@@ -9236,10 +9236,10 @@
         <v>6</v>
       </c>
       <c r="O3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" t="s">
         <v>68</v>
-      </c>
-      <c r="P3" t="s">
-        <v>69</v>
       </c>
       <c r="Q3" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9293,10 +9293,10 @@
         <v>6</v>
       </c>
       <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s">
         <v>68</v>
-      </c>
-      <c r="P4" t="s">
-        <v>69</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9350,10 +9350,10 @@
         <v>6</v>
       </c>
       <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="s">
         <v>68</v>
-      </c>
-      <c r="P5" t="s">
-        <v>69</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9407,10 +9407,10 @@
         <v>6</v>
       </c>
       <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" t="s">
         <v>68</v>
-      </c>
-      <c r="P6" t="s">
-        <v>69</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9464,10 +9464,10 @@
         <v>6</v>
       </c>
       <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s">
         <v>68</v>
-      </c>
-      <c r="P7" t="s">
-        <v>69</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9521,10 +9521,10 @@
         <v>6</v>
       </c>
       <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s">
         <v>68</v>
-      </c>
-      <c r="P8" t="s">
-        <v>69</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9578,10 +9578,10 @@
         <v>6</v>
       </c>
       <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="s">
         <v>68</v>
-      </c>
-      <c r="P9" t="s">
-        <v>69</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9635,10 +9635,10 @@
         <v>6</v>
       </c>
       <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s">
         <v>68</v>
-      </c>
-      <c r="P10" t="s">
-        <v>69</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9675,7 +9675,7 @@
         <v>70304</v>
       </c>
       <c r="Q16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -9683,7 +9683,7 @@
         <v>70305</v>
       </c>
       <c r="Q17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -9691,7 +9691,7 @@
         <v>70306</v>
       </c>
       <c r="Q18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -9699,7 +9699,7 @@
         <v>70401</v>
       </c>
       <c r="Q19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -9707,7 +9707,7 @@
         <v>70402</v>
       </c>
       <c r="Q20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -9715,7 +9715,7 @@
         <v>70403</v>
       </c>
       <c r="Q21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -9723,7 +9723,7 @@
         <v>70404</v>
       </c>
       <c r="Q22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -9731,7 +9731,7 @@
         <v>70405</v>
       </c>
       <c r="Q23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -9739,7 +9739,7 @@
         <v>70406</v>
       </c>
       <c r="Q24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -9747,7 +9747,7 @@
         <v>70501</v>
       </c>
       <c r="Q25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">

--- a/data_chapter.xlsx
+++ b/data_chapter.xlsx
@@ -669,7 +669,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data_chapter.xlsx
+++ b/data_chapter.xlsx
@@ -20,17 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="87">
   <si>
     <t>chapter_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>battle_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dungeon_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -287,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{1,10001},{2,10002},{3,10003},{4,10004},{5,10005}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{_bundle = "pic_dailyraid.data", _asset = "pic_dailyraid_1"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,6 +300,10 @@
   </si>
   <si>
     <t>$key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dungeon_list[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,12 +347,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,7 +668,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -690,40 +689,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -740,11 +739,11 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>82</v>
+      <c r="F2" s="3">
+        <v>10011002</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -753,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -777,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -789,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -813,10 +812,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -825,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -849,10 +848,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -861,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -885,10 +884,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -897,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -921,10 +920,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -933,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -957,10 +956,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -969,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -993,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -1005,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1029,10 +1028,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -1041,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -1065,10 +1064,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1077,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1101,10 +1100,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -1113,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -1137,10 +1136,10 @@
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -1149,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1173,10 +1172,10 @@
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1185,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1209,10 +1208,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -1221,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -1245,10 +1244,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
@@ -1257,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -1281,10 +1280,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -1293,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -1317,10 +1316,10 @@
         <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -1329,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -1353,10 +1352,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -1365,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -1389,10 +1388,10 @@
         <v>2</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
@@ -1401,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -1425,10 +1424,10 @@
         <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
@@ -1437,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1461,10 +1460,10 @@
         <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
@@ -1473,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -1497,10 +1496,10 @@
         <v>3</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
@@ -1509,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -1533,10 +1532,10 @@
         <v>3</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
@@ -1545,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -1569,10 +1568,10 @@
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
@@ -1581,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -1605,10 +1604,10 @@
         <v>3</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="2">
         <v>1</v>
@@ -1617,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -1641,10 +1640,10 @@
         <v>3</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
@@ -1653,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -1677,10 +1676,10 @@
         <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="2">
         <v>1</v>
@@ -1689,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -1713,10 +1712,10 @@
         <v>3</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
@@ -1725,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -1749,10 +1748,10 @@
         <v>3</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
@@ -1761,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -1785,10 +1784,10 @@
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
@@ -1797,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -1821,10 +1820,10 @@
         <v>3</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
@@ -1833,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -1857,10 +1856,10 @@
         <v>4</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>
@@ -1869,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -1893,10 +1892,10 @@
         <v>4</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="2">
         <v>1</v>
@@ -1905,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -1929,10 +1928,10 @@
         <v>4</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="2">
         <v>1</v>
@@ -1941,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -1965,10 +1964,10 @@
         <v>4</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
@@ -1977,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -2001,10 +2000,10 @@
         <v>4</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
@@ -2013,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
@@ -2037,10 +2036,10 @@
         <v>4</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
@@ -2049,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
@@ -2073,10 +2072,10 @@
         <v>4</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
@@ -2085,7 +2084,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K39" s="1">
         <v>0</v>
@@ -2109,10 +2108,10 @@
         <v>4</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
@@ -2121,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K40" s="1">
         <v>0</v>
@@ -2145,10 +2144,10 @@
         <v>4</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="2">
         <v>1</v>
@@ -2157,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
@@ -2181,10 +2180,10 @@
         <v>4</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
@@ -2193,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
@@ -2217,10 +2216,10 @@
         <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
@@ -2229,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K43" s="1">
         <v>0</v>
@@ -2253,10 +2252,10 @@
         <v>5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="2">
         <v>1</v>
@@ -2265,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
@@ -2289,10 +2288,10 @@
         <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="2">
         <v>1</v>
@@ -2301,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
@@ -2325,10 +2324,10 @@
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
@@ -2337,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
@@ -2361,10 +2360,10 @@
         <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
@@ -2373,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K47" s="1">
         <v>0</v>
@@ -2397,10 +2396,10 @@
         <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="2">
         <v>1</v>
@@ -2409,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K48" s="1">
         <v>0</v>
@@ -2433,10 +2432,10 @@
         <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
@@ -2445,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K49" s="1">
         <v>0</v>
@@ -2469,10 +2468,10 @@
         <v>5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="2">
         <v>1</v>
@@ -2481,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K50" s="1">
         <v>0</v>
@@ -2505,10 +2504,10 @@
         <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="2">
         <v>1</v>
@@ -2517,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K51" s="1">
         <v>0</v>
@@ -2541,10 +2540,10 @@
         <v>5</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
@@ -2553,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K52" s="1">
         <v>0</v>
@@ -2576,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2588,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K53" s="1">
         <v>0</v>
@@ -2611,10 +2610,10 @@
         <v>0</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2623,7 +2622,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K54" s="1">
         <v>0</v>
@@ -2646,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2658,7 +2657,7 @@
         <v>4</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K55" s="1">
         <v>0</v>
@@ -2681,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="2">
         <v>1</v>
@@ -2693,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K56" s="1">
         <v>0</v>
@@ -2716,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>
@@ -2728,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K57" s="1">
         <v>0</v>
@@ -2751,10 +2750,10 @@
         <v>0</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="2">
         <v>1</v>
@@ -2763,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K58" s="1">
         <v>0</v>
@@ -2786,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="2">
         <v>1</v>
@@ -2798,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K59" s="1">
         <v>0</v>
@@ -2821,10 +2820,10 @@
         <v>0</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="2">
         <v>1</v>
@@ -2833,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K60" s="1">
         <v>0</v>
@@ -2856,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="2">
         <v>1</v>
@@ -2868,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K61" s="1">
         <v>0</v>
@@ -2891,10 +2890,10 @@
         <v>0</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="2">
         <v>1</v>
@@ -2903,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K62" s="1">
         <v>0</v>
@@ -2926,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="2">
         <v>1</v>
@@ -2938,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K63" s="1">
         <v>0</v>
@@ -2961,10 +2960,10 @@
         <v>0</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="2">
         <v>1</v>
@@ -2973,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K64" s="1">
         <v>0</v>
@@ -2996,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H65" s="2">
-        <v>1</v>
-      </c>
-      <c r="I65" s="2">
-        <v>1</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="K65" s="1">
         <v>0</v>
@@ -3109,14 +3108,14 @@
   <dimension ref="C1:R51"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D51"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="3:18" x14ac:dyDescent="0.15">
       <c r="R1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="3:18" x14ac:dyDescent="0.15">
@@ -6046,3010 +6045,3010 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:A600"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A600"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="145" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="146" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="147" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="149" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="150" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="152" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="153" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="154" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="155" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="159" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="161" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="162" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="163" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="164" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="165" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="174" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="176" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="182" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="184" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="187" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="193" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="194" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="195" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="198" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="199" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="200" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="201" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="205" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="206" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="207" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="209" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="210" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="211" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="212" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="213" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="214" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="215" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="217" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="218" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="219" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="220" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="221" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="222" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="223" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="224" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="225" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="226" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="227" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="229" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="230" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="231" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="232" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="233" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="234" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="235" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="236" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="237" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="238" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="239" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="241" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="242" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="243" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="244" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="245" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="246" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="247" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="248" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="249" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="250" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="251" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="253" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="254" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="255" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="256" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="257" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="258" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="259" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="260" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="261" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="262" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="263" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="265" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="266" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="267" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="268" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="269" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="270" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="271" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="272" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="273" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="274" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="275" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="277" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="278" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="279" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="280" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="281" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="282" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="283" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="284" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="285" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="286" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="287" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="289" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="290" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="291" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="292" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="293" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="294" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="295" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="296" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="297" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="298" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="299" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="301" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="302" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="303" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="304" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="305" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="306" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="307" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="308" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="309" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="310" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="311" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="313" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="314" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="315" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="316" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="317" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="318" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="319" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="320" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="321" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="322" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="323" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="325" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="326" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="327" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="328" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="329" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="330" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="331" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="332" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="333" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="334" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="335" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="337" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="338" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="339" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="340" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="341" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="342" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="343" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="344" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="345" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="346" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="347" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="349" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="350" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="351" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="352" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="353" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="354" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="355" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="356" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="357" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="358" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="359" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="361" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="362" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="363" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="364" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="365" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="366" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="367" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="368" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="369" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="370" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="371" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="373" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="374" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="375" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="376" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="377" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="378" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="379" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="380" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="381" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="382" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="383" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="385" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="386" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="387" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="388" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="389" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="390" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="391" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="392" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="393" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="394" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="395" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="397" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="398" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="399" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="400" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="401" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="402" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="403" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="404" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="405" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="406" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="407" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="409" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="410" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="411" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="412" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="413" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="414" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="415" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="416" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="417" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="418" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="419" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="421" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="422" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="423" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="424" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="425" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="426" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="427" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="428" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="429" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="430" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="431" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="433" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="434" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="435" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="436" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="437" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="438" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="439" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="440" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="441" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="442" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="443" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="445" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="446" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="447" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="448" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="449" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="450" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="451" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="452" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="453" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="454" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="455" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="457" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="458" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="459" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="460" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="461" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="462" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="463" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="464" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="465" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="466" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="467" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="469" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="470" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="471" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="472" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="473" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="474" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="475" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="476" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="477" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="478" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="479" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="481" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="482" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="483" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="484" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="485" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="486" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="487" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="488" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="489" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="490" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="491" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="493" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="494" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="495" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="496" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="497" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="498" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="499" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="500" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="501" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="502" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="503" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="505" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="506" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="507" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="508" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="509" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="510" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="511" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="512" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="513" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="514" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="515" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="517" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="518" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="519" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="520" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="521" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A521" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="522" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A522" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="523" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="524" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="525" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="526" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="527" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A528" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="529" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="530" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A530" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="531" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A531" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="532" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A532" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="533" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A533" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="534" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A534" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="535" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A535" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="536" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A536" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="537" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A537" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="538" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="539" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A539" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="541" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="542" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="543" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A543" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="544" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A544" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="545" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A545" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="546" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A546" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="547" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A547" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="548" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="549" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A549" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="550" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A550" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="551" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="553" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A553" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="554" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="555" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A555" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="556" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A556" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="557" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A557" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="558" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="559" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A559" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="560" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="561" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A561" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="562" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A562" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="563" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A564" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="565" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A565" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="566" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A566" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="567" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A567" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="568" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A568" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="569" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A569" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="570" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A570" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="571" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A571" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="572" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A572" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="573" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A573" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="574" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="575" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="577" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A577" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="578" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A578" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="579" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A579" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="580" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="581" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A581" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="582" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A582" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="583" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A583" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="584" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A584" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="585" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A585" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="586" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A586" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="587" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A587" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A588" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="589" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A589" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="590" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A590" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="591" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A591" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="592" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A592" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="593" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A593" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="594" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A594" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="595" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A595" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="596" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A596" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="597" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="598" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="599" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A600" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -9070,7 +9069,7 @@
   <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16:W25"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9122,10 +9121,10 @@
         <v>6</v>
       </c>
       <c r="O1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" t="s">
         <v>67</v>
-      </c>
-      <c r="P1" t="s">
-        <v>68</v>
       </c>
       <c r="Q1" t="str">
         <f ca="1">O1&amp;"{"&amp;I1&amp;","&amp;C1&amp;"}"&amp;","&amp;"{"&amp;J1&amp;","&amp;D1&amp;"}"&amp;","&amp;"{"&amp;K1&amp;","&amp;E1&amp;"}"&amp;","&amp;"{"&amp;L1&amp;","&amp;F1&amp;"}"&amp;","&amp;"{"&amp;M1&amp;","&amp;G1&amp;"}"&amp;","&amp;"{"&amp;N1&amp;","&amp;H1&amp;"}"&amp;P1</f>
@@ -9179,10 +9178,10 @@
         <v>6</v>
       </c>
       <c r="O2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" t="s">
         <v>67</v>
-      </c>
-      <c r="P2" t="s">
-        <v>68</v>
       </c>
       <c r="Q2" t="str">
         <f t="shared" ref="Q2:Q10" ca="1" si="7">O2&amp;"{"&amp;I2&amp;","&amp;C2&amp;"}"&amp;","&amp;"{"&amp;J2&amp;","&amp;D2&amp;"}"&amp;","&amp;"{"&amp;K2&amp;","&amp;E2&amp;"}"&amp;","&amp;"{"&amp;L2&amp;","&amp;F2&amp;"}"&amp;","&amp;"{"&amp;M2&amp;","&amp;G2&amp;"}"&amp;","&amp;"{"&amp;N2&amp;","&amp;H2&amp;"}"&amp;P2</f>
@@ -9236,10 +9235,10 @@
         <v>6</v>
       </c>
       <c r="O3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" t="s">
         <v>67</v>
-      </c>
-      <c r="P3" t="s">
-        <v>68</v>
       </c>
       <c r="Q3" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9293,10 +9292,10 @@
         <v>6</v>
       </c>
       <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s">
         <v>67</v>
-      </c>
-      <c r="P4" t="s">
-        <v>68</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9350,10 +9349,10 @@
         <v>6</v>
       </c>
       <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s">
         <v>67</v>
-      </c>
-      <c r="P5" t="s">
-        <v>68</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9407,10 +9406,10 @@
         <v>6</v>
       </c>
       <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s">
         <v>67</v>
-      </c>
-      <c r="P6" t="s">
-        <v>68</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9464,10 +9463,10 @@
         <v>6</v>
       </c>
       <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s">
         <v>67</v>
-      </c>
-      <c r="P7" t="s">
-        <v>68</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9521,10 +9520,10 @@
         <v>6</v>
       </c>
       <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s">
         <v>67</v>
-      </c>
-      <c r="P8" t="s">
-        <v>68</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9578,10 +9577,10 @@
         <v>6</v>
       </c>
       <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="s">
         <v>67</v>
-      </c>
-      <c r="P9" t="s">
-        <v>68</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9635,10 +9634,10 @@
         <v>6</v>
       </c>
       <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" t="s">
-        <v>68</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9675,7 +9674,7 @@
         <v>70304</v>
       </c>
       <c r="Q16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -9683,7 +9682,7 @@
         <v>70305</v>
       </c>
       <c r="Q17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -9691,7 +9690,7 @@
         <v>70306</v>
       </c>
       <c r="Q18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -9699,7 +9698,7 @@
         <v>70401</v>
       </c>
       <c r="Q19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -9707,7 +9706,7 @@
         <v>70402</v>
       </c>
       <c r="Q20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -9715,7 +9714,7 @@
         <v>70403</v>
       </c>
       <c r="Q21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -9723,7 +9722,7 @@
         <v>70404</v>
       </c>
       <c r="Q22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -9731,7 +9730,7 @@
         <v>70405</v>
       </c>
       <c r="Q23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -9739,7 +9738,7 @@
         <v>70406</v>
       </c>
       <c r="Q24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -9747,7 +9746,7 @@
         <v>70501</v>
       </c>
       <c r="Q25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
